--- a/fremdriftsplan.xlsx
+++ b/fremdriftsplan.xlsx
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -342,48 +342,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -722,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P30"/>
+  <dimension ref="A2:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -738,611 +754,623 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="21">
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" ht="22" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="17" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="29">
+        <v>41281</v>
+      </c>
+      <c r="P4" s="19">
         <v>41414</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="7"/>
-      <c r="C4" s="15" t="s">
+    <row r="5" spans="1:16">
+      <c r="B5" s="28"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="7"/>
+      <c r="C6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="15" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="15" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="18" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="18" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="19" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="19" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="20"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" customHeight="1">
-      <c r="B9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="33"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="3"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1">
+    <row r="11" spans="1:16" ht="17" customHeight="1">
       <c r="B11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="22" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22" t="s">
-        <v>21</v>
+      <c r="F11" s="23"/>
+      <c r="G11" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
-        <v>21</v>
+      <c r="I11" s="23"/>
+      <c r="J11" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="32"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="31"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" ht="16" customHeight="1">
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="22" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22" t="s">
-        <v>22</v>
+      <c r="F13" s="23"/>
+      <c r="G13" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
-        <v>22</v>
+      <c r="I13" s="23"/>
+      <c r="J13" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="23"/>
       <c r="O13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="32"/>
+        <v>21</v>
+      </c>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" ht="16" customHeight="1">
       <c r="B15" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="22" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22" t="s">
-        <v>25</v>
+      <c r="F15" s="23"/>
+      <c r="G15" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22" t="s">
-        <v>25</v>
+      <c r="I15" s="23"/>
+      <c r="J15" s="36" t="s">
+        <v>22</v>
       </c>
       <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="23"/>
       <c r="O15" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="32"/>
+        <v>22</v>
+      </c>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="3"/>
       <c r="P16" s="4"/>
     </row>
-    <row r="17" spans="2:16" ht="30" customHeight="1">
-      <c r="B17" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="22" t="s">
-        <v>26</v>
+    <row r="17" spans="2:16" ht="16" customHeight="1">
+      <c r="B17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22" t="s">
-        <v>31</v>
+      <c r="F17" s="23"/>
+      <c r="G17" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22" t="s">
-        <v>31</v>
+      <c r="I17" s="23"/>
+      <c r="J17" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="32"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="3"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="2:16" ht="33" customHeight="1">
-      <c r="B19" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="22"/>
+    <row r="19" spans="2:16" ht="30" customHeight="1">
+      <c r="B19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="22" t="s">
-        <v>30</v>
+      <c r="F19" s="23"/>
+      <c r="G19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23" t="s">
-        <v>32</v>
+      <c r="L19" s="23"/>
+      <c r="M19" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="N19" s="23"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" ht="33" customHeight="1">
       <c r="B21" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="22"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="36" t="s">
+        <v>30</v>
+      </c>
       <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="39"/>
       <c r="O21" s="3"/>
       <c r="P21" s="4"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="3"/>
       <c r="P22" s="4"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="22"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="36"/>
       <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="3"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="3"/>
       <c r="P24" s="4"/>
     </row>
-    <row r="25" spans="2:16" ht="29" customHeight="1">
-      <c r="B25" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="2:16">
+      <c r="B25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="4"/>
       <c r="O25" s="3"/>
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="3"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="2:16" ht="29" customHeight="1">
+      <c r="B27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="3"/>
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="3"/>
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="3"/>
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="20"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="21"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M19:N19"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D21:F21"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J23:L23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
